--- a/ProposalContentDivendraSowamberRev02.xlsx
+++ b/ProposalContentDivendraSowamberRev02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -65,54 +65,42 @@
     <t>Divendra Sowamber</t>
   </si>
   <si>
-    <t>TSL2561 light sensor (0x49)</t>
-  </si>
-  <si>
-    <t>Kingsley Suong</t>
-  </si>
-  <si>
     <t>Portable Solar System</t>
   </si>
   <si>
-    <t>j233 For soldering part</t>
-  </si>
-  <si>
-    <t>Time and amount of power collected from the sun/light</t>
-  </si>
-  <si>
     <t>instant power off of the system, change of angle of the solar panel, setting up aim to achieve desired amount of power</t>
   </si>
   <si>
-    <t>My project will be including servo motors where the mini solar panel will be attached to it. There will be wiring part both of the servo motor and the panel where I might encounter problems. Also the place for the light sensor in the raspberry pi has not been decided yet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This chosen project, I have bit of a background as I have done this as a course in the Embedded System in semester 4. I can refer to the past labs partly to help me in the portable solar system. The part thing that is common is that my mini solar panel will also track the light/sun at its best intensity and move the solar panel towards it. Aim is to be able to move servo motor towards light where the panel will be attached to it in order to capture power. Angle, amount of power and time shall be saved to database. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://six0four.github.io/ceng317/wk02.html#Section_6               </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">T.Kauffmann </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Solar Power for Raspberry Pi"</t>
-    </r>
-  </si>
-  <si>
     <t>Wiring diagram for my project is necessary before I start up with any wiring process. Also a reference to other projects should be helpful.</t>
   </si>
   <si>
-    <t>Raspberry pi 3 $45.75, Monocrystalline solar cell 100MA 7.2v  $13.40, Servo kit $16, TSL2561 LUX Sensor  $7.95</t>
+    <t>Timestamp and amount of power collected from the sun/light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prinsloo, Gerro. (2014). SolarTracking eBook MOBI Kindle version GerroPrinsloo. </t>
+  </si>
+  <si>
+    <t>Humber sustainable and renewable energy program</t>
+  </si>
+  <si>
+    <t>Suong Luong</t>
+  </si>
+  <si>
+    <t>MCP4725A1 12-bit DAC (0x62).</t>
+  </si>
+  <si>
+    <t>Raspberry pi 3 $45.75, Monocrystalline solar cell 100MA 7.2v  $13.40, Servo kit $16, MCP4725 Breakout Board - 12-Bit DAC</t>
+  </si>
+  <si>
+    <t>Cheng-Ta Chiang,Design of a CMOS Monolithic Digitized Light Detector With Noise Insensitivity for light 
+Detector With Noise Insensitivity for
+Light Monitoring Applications</t>
+  </si>
+  <si>
+    <t>My project will be including servo motors where the mini solar panel will be attached to it. There will be wiring part of the servo motor, the panel and the DAC board to be done where I might encounter problems. Also the casing of the whole compacted elements is still to be decided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This chosen project, I have bit of a background as I have done this as a course in the Embedded System in semester 4. I can refer to the past labs partly to help me in the portable solar system. The part thing that is common is that my mini solar panel will also have a rotating motor when it turns on, it brings up the panel to absorb the light/sun at its best intensity. Aim is to be able to absorb light where the panel will be attached to it in order to capture power and store it into rechargeable batteries. amount of power and time shall be saved to database. </t>
   </si>
   <si>
     <t>https://github.com/kritish007/portablesolarsystem</t>
@@ -122,20 +110,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF20262B"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -146,10 +127,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF20262B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,7 +215,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -255,11 +234,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -271,6 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,8 +566,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="107" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -597,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <v>43354</v>
+        <v>43413</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +599,7 @@
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -628,8 +607,8 @@
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
+      <c r="B5" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -637,23 +616,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -661,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -669,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -677,49 +656,50 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>27</v>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>26</v>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" location="Section_6               "/>
+    <hyperlink ref="B12" r:id="rId1" location="Section_6               " display="https://six0four.github.io/ceng317/wk02.html#Section_6               "/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3" display="https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=6690203&amp;isnumber=6841675"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -801,7 +781,7 @@
     <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>DataEntry!B1</f>
-        <v>43354</v>
+        <v>43413</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>DataEntry!B2</f>
@@ -817,11 +797,11 @@
       </c>
       <c r="E2" s="1" t="str">
         <f>DataEntry!B5</f>
-        <v>TSL2561 light sensor (0x49)</v>
+        <v>MCP4725A1 12-bit DAC (0x62).</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>DataEntry!B6</f>
-        <v>Time and amount of power collected from the sun/light</v>
+        <v>Timestamp and amount of power collected from the sun/light</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>DataEntry!B7</f>
@@ -829,31 +809,33 @@
       </c>
       <c r="H2" s="1" t="str">
         <f>DataEntry!B8</f>
-        <v>j233 For soldering part</v>
+        <v>Humber sustainable and renewable energy program</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>DataEntry!B9</f>
-        <v>Kingsley Suong</v>
+        <v>Suong Luong</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>DataEntry!B10</f>
-        <v>My project will be including servo motors where the mini solar panel will be attached to it. There will be wiring part both of the servo motor and the panel where I might encounter problems. Also the place for the light sensor in the raspberry pi has not been decided yet</v>
+        <v>My project will be including servo motors where the mini solar panel will be attached to it. There will be wiring part of the servo motor, the panel and the DAC board to be done where I might encounter problems. Also the casing of the whole compacted elements is still to be decided</v>
       </c>
       <c r="K2" s="1" t="str">
         <f>DataEntry!B11</f>
-        <v xml:space="preserve">This chosen project, I have bit of a background as I have done this as a course in the Embedded System in semester 4. I can refer to the past labs partly to help me in the portable solar system. The part thing that is common is that my mini solar panel will also track the light/sun at its best intensity and move the solar panel towards it. Aim is to be able to move servo motor towards light where the panel will be attached to it in order to capture power. Angle, amount of power and time shall be saved to database. </v>
+        <v xml:space="preserve">This chosen project, I have bit of a background as I have done this as a course in the Embedded System in semester 4. I can refer to the past labs partly to help me in the portable solar system. The part thing that is common is that my mini solar panel will also have a rotating motor when it turns on, it brings up the panel to absorb the light/sun at its best intensity. Aim is to be able to absorb light where the panel will be attached to it in order to capture power and store it into rechargeable batteries. amount of power and time shall be saved to database. </v>
       </c>
       <c r="L2" s="1" t="str">
         <f>DataEntry!B12</f>
-        <v xml:space="preserve">https://six0four.github.io/ceng317/wk02.html#Section_6               </v>
+        <v xml:space="preserve">Prinsloo, Gerro. (2014). SolarTracking eBook MOBI Kindle version GerroPrinsloo. </v>
       </c>
       <c r="M2" s="1" t="str">
         <f>DataEntry!B13</f>
-        <v>T.Kauffmann "Solar Power for Raspberry Pi"</v>
+        <v>Cheng-Ta Chiang,Design of a CMOS Monolithic Digitized Light Detector With Noise Insensitivity for light 
+Detector With Noise Insensitivity for
+Light Monitoring Applications</v>
       </c>
       <c r="N2" s="1" t="str">
         <f>DataEntry!B14</f>
-        <v>Raspberry pi 3 $45.75, Monocrystalline solar cell 100MA 7.2v  $13.40, Servo kit $16, TSL2561 LUX Sensor  $7.95</v>
+        <v>Raspberry pi 3 $45.75, Monocrystalline solar cell 100MA 7.2v  $13.40, Servo kit $16, MCP4725 Breakout Board - 12-Bit DAC</v>
       </c>
       <c r="O2" s="1" t="str">
         <f>DataEntry!B15</f>
